--- a/traduction langue.xlsx
+++ b/traduction langue.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Explication</t>
   </si>
@@ -67,13 +67,37 @@
   </si>
   <si>
     <t>texte pafe services droite</t>
+  </si>
+  <si>
+    <t>menuhome</t>
+  </si>
+  <si>
+    <t>menuhistory</t>
+  </si>
+  <si>
+    <t>menutour</t>
+  </si>
+  <si>
+    <t>menuappart</t>
+  </si>
+  <si>
+    <t>menudesign</t>
+  </si>
+  <si>
+    <t>menuservices</t>
+  </si>
+  <si>
+    <t>menucontact</t>
+  </si>
+  <si>
+    <t>menu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -85,6 +109,29 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -291,10 +338,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -302,7 +351,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -314,8 +362,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -645,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -662,22 +715,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" thickBot="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -729,20 +782,105 @@
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="16" thickBot="1">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="16" thickBot="1">
+      <c r="A13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
